--- a/GreekData.xlsx
+++ b/GreekData.xlsx
@@ -6,17 +6,23 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="GreekData" r:id="rId3" sheetId="1"/>
+    <sheet name="GreekDataEdited" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="384">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>NameBase</t>
+  </si>
+  <si>
+    <t>Popularity</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -29,27 +35,39 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Date Range</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>DateNum</t>
+  </si>
+  <si>
     <t>Region</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Ἡφαστίων</t>
   </si>
   <si>
+    <t>popular</t>
+  </si>
+  <si>
     <t>Pella</t>
   </si>
   <si>
     <t>40.7624, 22.5295</t>
   </si>
   <si>
+    <t>325-250</t>
+  </si>
+  <si>
     <t>315-300</t>
   </si>
   <si>
@@ -68,12 +86,12 @@
     <t>40.6403, 22.9407</t>
   </si>
   <si>
+    <t>250-150</t>
+  </si>
+  <si>
     <t>200-175</t>
   </si>
   <si>
-    <t>Macedona</t>
-  </si>
-  <si>
     <t>http://epigraphy.packhum.org/text/137208?&amp;bookid=14&amp;location=4</t>
   </si>
   <si>
@@ -104,12 +122,12 @@
     <t>39.3434, 22.9243</t>
   </si>
   <si>
+    <t>325-250, 250-150</t>
+  </si>
+  <si>
     <t>Hellenistic</t>
   </si>
   <si>
-    <t xml:space="preserve">Thessaly </t>
-  </si>
-  <si>
     <t>http://epigraphy.packhum.org/text/149115?hs=129-146</t>
   </si>
   <si>
@@ -137,12 +155,18 @@
     <t>100s</t>
   </si>
   <si>
+    <t>Attika-Boeotia</t>
+  </si>
+  <si>
     <t>http://epigraphy.packhum.org/text/8449?&amp;bookid=5&amp;location=7</t>
   </si>
   <si>
     <t>Ἡφαιστόδωρος</t>
   </si>
   <si>
+    <t>less-popular</t>
+  </si>
+  <si>
     <t>200s</t>
   </si>
   <si>
@@ -152,6 +176,9 @@
     <t>Ἡφήστιχος</t>
   </si>
   <si>
+    <t>rare</t>
+  </si>
+  <si>
     <t>Tanagra</t>
   </si>
   <si>
@@ -173,6 +200,9 @@
     <t>37.75, 23.425</t>
   </si>
   <si>
+    <t>300s</t>
+  </si>
+  <si>
     <t>post-400</t>
   </si>
   <si>
@@ -191,7 +221,7 @@
     <t>38.0011, 23.9011</t>
   </si>
   <si>
-    <t>325-375</t>
+    <t>372-325</t>
   </si>
   <si>
     <t>Attika</t>
@@ -359,6 +389,9 @@
     <t>Ἡφαιστόδοτος</t>
   </si>
   <si>
+    <t>uncommon</t>
+  </si>
+  <si>
     <t>303/4</t>
   </si>
   <si>
@@ -386,7 +419,7 @@
     <t>http://epigraphy.packhum.org/text/346689</t>
   </si>
   <si>
-    <t xml:space="preserve">Ἑφαιστόδορος </t>
+    <t>400s</t>
   </si>
   <si>
     <t>414/14</t>
@@ -395,7 +428,7 @@
     <t>http://epigraphy.packhum.org/text/435?&amp;bookid=4&amp;location=7</t>
   </si>
   <si>
-    <t>Ἑφαιστόδορος</t>
+    <t>411</t>
   </si>
   <si>
     <t>http://clas-lgpn2.classics.ox.ac.uk/cgi-bin/lgpn_search.cgi?id=V2-31162</t>
@@ -581,9 +614,15 @@
     <t>http://epigraphy.packhum.org/text/344307</t>
   </si>
   <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>http://clas-lgpn2.classics.ox.ac.uk/cgi-bin/lgpn_search.cgi?id=V1-45735&amp;style=</t>
   </si>
   <si>
+    <t>350</t>
+  </si>
+  <si>
     <t>http://epigraphy.packhum.org/text/344025?hs=4633-4645</t>
   </si>
   <si>
@@ -599,6 +638,9 @@
     <t>36.0913, 28.0882</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>Dodecanese</t>
   </si>
   <si>
@@ -647,9 +689,6 @@
     <t>http://epigraphy.packhum.org/text/80685?hs=46-58</t>
   </si>
   <si>
-    <t>325-250</t>
-  </si>
-  <si>
     <t>http://epigraphy.packhum.org/text/80827?hs=1283-1291</t>
   </si>
   <si>
@@ -659,18 +698,15 @@
     <t>37.2336, 25.1616</t>
   </si>
   <si>
+    <t>192</t>
+  </si>
+  <si>
     <t>Cyclades</t>
   </si>
   <si>
     <t>http://epigraphy.packhum.org/text/62875?hs=6169-6177</t>
   </si>
   <si>
-    <t>124/3</t>
-  </si>
-  <si>
-    <t>http://epigraphy.packhum.org/text/64086?hs=377-385</t>
-  </si>
-  <si>
     <t>Ceos</t>
   </si>
   <si>
@@ -695,6 +731,9 @@
     <t>36.744, 24.422</t>
   </si>
   <si>
+    <t>300s, 325-250</t>
+  </si>
+  <si>
     <t>350-250</t>
   </si>
   <si>
@@ -725,9 +764,6 @@
     <t>38.3048, 31.1884</t>
   </si>
   <si>
-    <t>250-150</t>
-  </si>
-  <si>
     <t>Pisidia</t>
   </si>
   <si>
@@ -809,6 +845,9 @@
     <t>37.3149, 27.1642</t>
   </si>
   <si>
+    <t>405</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ionia </t>
   </si>
   <si>
@@ -902,22 +941,22 @@
     <t>40.4257, 27.0671</t>
   </si>
   <si>
+    <t>208</t>
+  </si>
+  <si>
     <t>http://clas-lgpn2.classics.ox.ac.uk/cgi-bin/lgpn_search.cgi?id=V5a-15460&amp;style=</t>
   </si>
   <si>
-    <t>Troas</t>
+    <t>Troad</t>
   </si>
   <si>
     <t>39.752, 26.159</t>
   </si>
   <si>
-    <t>Troad</t>
-  </si>
-  <si>
     <t>http://clas-lgpn2.classics.ox.ac.uk/cgi-bin/lgpn_search.cgi?id=V5a-15465&amp;style=</t>
   </si>
   <si>
-    <t>Hisarlik</t>
+    <t>Troy</t>
   </si>
   <si>
     <t>39.957, 26.239</t>
@@ -962,6 +1001,9 @@
     <t>42.025, 35.143</t>
   </si>
   <si>
+    <t>400s, 300s</t>
+  </si>
+  <si>
     <t>450-350</t>
   </si>
   <si>
@@ -971,9 +1013,6 @@
     <t>http://epigraphy.packhum.org/text/312316?hs=114-126</t>
   </si>
   <si>
-    <t>300s</t>
-  </si>
-  <si>
     <t>http://epigraphy.packhum.org/text/312301?hs=584-597</t>
   </si>
   <si>
@@ -1103,7 +1142,7 @@
     <t>46.11, 30.2613</t>
   </si>
   <si>
-    <t xml:space="preserve">Scythia  </t>
+    <t>Scythia</t>
   </si>
   <si>
     <t>http://clas-lgpn2.classics.ox.ac.uk/cgi-bin/lgpn_search.cgi?id=V4-18503&amp;style=</t>
@@ -1118,13 +1157,7 @@
     <t>46.4133, 31.5413</t>
   </si>
   <si>
-    <t>Scythia</t>
-  </si>
-  <si>
     <t>http://epigraphy.packhum.org/text/184158?hs=109-118</t>
-  </si>
-  <si>
-    <t>400s</t>
   </si>
   <si>
     <t>http://epigraphy.packhum.org/text/339360</t>
@@ -1212,3465 +1245,4840 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
         <v>40.7624</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>22.5295</v>
       </c>
-      <c r="F2"/>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n">
         <v>40.6403</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>22.9407</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
+      <c r="L3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="n">
         <v>40.6403</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>22.9407</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>39.037</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22.457</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
-        <v>39.037</v>
-      </c>
-      <c r="E5" t="n">
-        <v>22.457</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="n">
         <v>39.3434</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>22.9243</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K6" t="s">
         <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
         <v>38.4791</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>22.497</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="J7" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
         <v>38.3195</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>23.79</v>
       </c>
-      <c r="F8"/>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
         <v>38.3195</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>23.79</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" t="s">
-        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="J9" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="n">
+        <v>38.3074</v>
+      </c>
+      <c r="G10" t="n">
+        <v>23.5841</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="n">
-        <v>38.3074</v>
-      </c>
-      <c r="E10" t="n">
-        <v>23.5841</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>49</v>
+      <c r="L10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="n">
         <v>37.75</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>23.425</v>
       </c>
-      <c r="F11"/>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="n">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="n">
         <v>38.0011</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>23.9011</v>
       </c>
-      <c r="F12"/>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="J12" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="n">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="n">
         <v>38.018</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>23.723</v>
       </c>
-      <c r="F13"/>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37.9715</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23.7193</v>
+      </c>
+      <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37.9715</v>
-      </c>
-      <c r="E14" t="n">
-        <v>23.7193</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F15"/>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="K15" t="s">
         <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F16"/>
-      <c r="G16" t="s">
-        <v>71</v>
-      </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="J16" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F17"/>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="J17" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F18"/>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F19"/>
-      <c r="G19" t="s">
-        <v>75</v>
-      </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="J19" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F20"/>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>51</v>
+      </c>
+      <c r="J20" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F21"/>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="J21" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F22"/>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="n">
         <v>37.9872</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>24.0045</v>
       </c>
-      <c r="F23"/>
-      <c r="G23" t="s">
-        <v>87</v>
-      </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="J23" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="n">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F24"/>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="n">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F25"/>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>27</v>
+      </c>
+      <c r="J25" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="n">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F26"/>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="J26" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="n">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="n">
         <v>37.9672</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>23.9187</v>
       </c>
-      <c r="F27"/>
-      <c r="G27" t="s">
-        <v>97</v>
-      </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="J27" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" t="n">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="n">
         <v>37.9672</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>23.9187</v>
       </c>
-      <c r="F28"/>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="n">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="n">
         <v>37.9766</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>23.756</v>
       </c>
-      <c r="F29"/>
-      <c r="G29" t="s">
-        <v>102</v>
-      </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="J29" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F30"/>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>46</v>
+      </c>
+      <c r="J30" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F31"/>
-      <c r="G31" t="s">
-        <v>105</v>
-      </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="J31" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="n">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F32"/>
-      <c r="G32" t="s">
-        <v>107</v>
-      </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>108</v>
+        <v>117</v>
+      </c>
+      <c r="J32" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" t="n">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" t="n">
         <v>38.0851</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>23.8206</v>
       </c>
-      <c r="F33"/>
-      <c r="G33" t="s">
-        <v>112</v>
-      </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>113</v>
+        <v>122</v>
+      </c>
+      <c r="J33" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="n">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="n">
         <v>37.9872</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>24.0045</v>
       </c>
-      <c r="F34"/>
-      <c r="G34" t="s">
-        <v>115</v>
-      </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="J34" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="n">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F35"/>
-      <c r="G35" t="s">
-        <v>118</v>
-      </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="J35" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="n">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="n">
         <v>38.0413</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>23.5418</v>
       </c>
-      <c r="F36"/>
-      <c r="G36" t="s">
-        <v>122</v>
-      </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="J36" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" t="s">
-        <v>125</v>
-      </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>136</v>
+      </c>
+      <c r="J37" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F38" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="H38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" t="n">
         <v>411.0</v>
       </c>
-      <c r="H38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" t="s">
-        <v>128</v>
+      <c r="K38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F39"/>
-      <c r="G39" t="s">
-        <v>129</v>
-      </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="J39" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F40"/>
-      <c r="G40" t="s">
-        <v>131</v>
-      </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>142</v>
+      </c>
+      <c r="J40" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L40" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F41"/>
-      <c r="G41" t="s">
-        <v>133</v>
-      </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>144</v>
+      </c>
+      <c r="J41" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E42" t="n">
+      <c r="G42" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F42"/>
-      <c r="G42" t="s">
-        <v>133</v>
-      </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="J42" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E43" t="n">
+      <c r="G43" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F43"/>
-      <c r="G43" t="s">
-        <v>136</v>
-      </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>137</v>
+        <v>147</v>
+      </c>
+      <c r="J43" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>70</v>
+      </c>
+      <c r="L43" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" t="n">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="n">
         <v>37.7244</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>23.996</v>
       </c>
-      <c r="F44"/>
-      <c r="G44" t="s">
-        <v>140</v>
-      </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
+        <v>151</v>
+      </c>
+      <c r="J44" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="n">
         <v>37.8982</v>
       </c>
-      <c r="E45" t="n">
+      <c r="G45" t="n">
         <v>24.0107</v>
       </c>
-      <c r="F45"/>
-      <c r="G45" t="s">
-        <v>75</v>
-      </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>85</v>
+      </c>
+      <c r="J45" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" t="n">
         <v>37.9719</v>
       </c>
-      <c r="E46" t="n">
+      <c r="G46" t="n">
         <v>23.784</v>
       </c>
-      <c r="F46"/>
-      <c r="G46" t="s">
-        <v>146</v>
-      </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
-        <v>147</v>
+        <v>157</v>
+      </c>
+      <c r="J46" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" t="n">
         <v>38.0564</v>
       </c>
-      <c r="E47" t="n">
+      <c r="G47" t="n">
         <v>23.7391</v>
       </c>
-      <c r="F47"/>
-      <c r="G47" t="s">
-        <v>150</v>
-      </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>151</v>
+        <v>161</v>
+      </c>
+      <c r="J47" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L47" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F48"/>
-      <c r="G48" t="s">
-        <v>153</v>
-      </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="J48" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" t="n">
         <v>38.018</v>
       </c>
-      <c r="E49" t="n">
+      <c r="G49" t="n">
         <v>23.723</v>
       </c>
-      <c r="F49"/>
-      <c r="G49" t="s">
-        <v>155</v>
-      </c>
       <c r="H49" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="J49" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" t="n">
         <v>38.018</v>
       </c>
-      <c r="E50" t="n">
+      <c r="G50" t="n">
         <v>23.723</v>
       </c>
-      <c r="F50"/>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>157</v>
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>70</v>
+      </c>
+      <c r="L50" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="n">
         <v>38.018</v>
       </c>
-      <c r="E51" t="n">
+      <c r="G51" t="n">
         <v>23.723</v>
       </c>
-      <c r="F51"/>
-      <c r="G51" t="s">
-        <v>158</v>
-      </c>
       <c r="H51" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>159</v>
+        <v>169</v>
+      </c>
+      <c r="J51" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" t="n">
         <v>37.8663</v>
       </c>
-      <c r="E52" t="n">
+      <c r="G52" t="n">
         <v>23.7549</v>
       </c>
-      <c r="F52"/>
-      <c r="G52" t="s">
-        <v>162</v>
-      </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>163</v>
+        <v>173</v>
+      </c>
+      <c r="J52" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="n">
+        <v>125</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="n">
         <v>37.9872</v>
       </c>
-      <c r="E53" t="n">
+      <c r="G53" t="n">
         <v>24.0045</v>
       </c>
-      <c r="F53"/>
-      <c r="G53" t="s">
-        <v>165</v>
-      </c>
       <c r="H53" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>166</v>
+        <v>176</v>
+      </c>
+      <c r="J53" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>70</v>
+      </c>
+      <c r="L53" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" t="n">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" t="n">
         <v>37.9872</v>
       </c>
-      <c r="E54" t="n">
+      <c r="G54" t="n">
         <v>24.0045</v>
       </c>
-      <c r="F54"/>
-      <c r="G54" t="s">
-        <v>167</v>
-      </c>
       <c r="H54" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>168</v>
+        <v>178</v>
+      </c>
+      <c r="J54" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>70</v>
+      </c>
+      <c r="L54" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" t="n">
         <v>37.9715</v>
       </c>
-      <c r="E55" t="n">
+      <c r="G55" t="n">
         <v>23.7193</v>
       </c>
-      <c r="F55"/>
-      <c r="G55" t="s">
-        <v>171</v>
-      </c>
       <c r="H55" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="I55" t="s">
-        <v>172</v>
+        <v>182</v>
+      </c>
+      <c r="J55" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L55" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" t="n">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" t="n">
         <v>39.1341</v>
       </c>
-      <c r="E56" t="n">
+      <c r="G56" t="n">
         <v>25.9348</v>
       </c>
-      <c r="F56"/>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>176</v>
+        <v>46</v>
+      </c>
+      <c r="J56" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>186</v>
+      </c>
+      <c r="L56" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" t="n">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" t="n">
         <v>38.3764</v>
       </c>
-      <c r="E57" t="n">
+      <c r="G57" t="n">
         <v>26.1342</v>
       </c>
-      <c r="F57"/>
-      <c r="G57" t="s">
-        <v>180</v>
-      </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="I57" t="s">
-        <v>181</v>
+        <v>191</v>
+      </c>
+      <c r="J57" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>186</v>
+      </c>
+      <c r="L57" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" t="n">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" t="n">
         <v>37.695</v>
       </c>
-      <c r="E58" t="n">
+      <c r="G58" t="n">
         <v>26.935</v>
       </c>
-      <c r="F58"/>
-      <c r="G58" t="s">
-        <v>184</v>
-      </c>
       <c r="H58" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>195</v>
+      </c>
+      <c r="J58" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>186</v>
+      </c>
+      <c r="L58" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" t="n">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" t="n">
         <v>37.695</v>
       </c>
-      <c r="E59" t="n">
+      <c r="G59" t="n">
         <v>26.935</v>
       </c>
-      <c r="F59"/>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
+        <v>195</v>
+      </c>
+      <c r="I59" t="s">
+        <v>197</v>
+      </c>
+      <c r="J59" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="K59" t="s">
         <v>186</v>
       </c>
-      <c r="H59" t="s">
-        <v>175</v>
-      </c>
-      <c r="I59" t="s">
-        <v>187</v>
+      <c r="L59" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" t="n">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" t="n">
         <v>37.695</v>
       </c>
-      <c r="E60" t="n">
+      <c r="G60" t="n">
         <v>26.935</v>
       </c>
-      <c r="F60"/>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
+        <v>195</v>
+      </c>
+      <c r="I60" t="s">
+        <v>197</v>
+      </c>
+      <c r="J60" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="K60" t="s">
         <v>186</v>
       </c>
-      <c r="H60" t="s">
-        <v>175</v>
-      </c>
-      <c r="I60" t="s">
-        <v>188</v>
+      <c r="L60" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" t="n">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" t="n">
         <v>37.695</v>
       </c>
-      <c r="E61" t="n">
+      <c r="G61" t="n">
         <v>26.935</v>
       </c>
-      <c r="F61"/>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>500.0</v>
       </c>
-      <c r="H61" t="s">
-        <v>175</v>
-      </c>
       <c r="I61" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="J61" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>186</v>
+      </c>
+      <c r="L61" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" t="n">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" t="s">
+        <v>194</v>
+      </c>
+      <c r="F62" t="n">
         <v>37.695</v>
       </c>
-      <c r="E62" t="n">
+      <c r="G62" t="n">
         <v>26.935</v>
       </c>
-      <c r="F62"/>
-      <c r="G62" t="n">
+      <c r="H62" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" t="s">
+        <v>202</v>
+      </c>
+      <c r="J62" t="n">
         <v>350.0</v>
       </c>
-      <c r="H62" t="s">
-        <v>175</v>
-      </c>
-      <c r="I62" t="s">
-        <v>190</v>
+      <c r="K62" t="s">
+        <v>186</v>
+      </c>
+      <c r="L62" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" t="n">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" t="n">
         <v>37.695</v>
       </c>
-      <c r="E63" t="n">
+      <c r="G63" t="n">
         <v>26.935</v>
       </c>
-      <c r="F63"/>
-      <c r="G63" t="s">
-        <v>184</v>
-      </c>
       <c r="H63" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="J63" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>186</v>
+      </c>
+      <c r="L63" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" t="n">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" t="n">
         <v>36.0913</v>
       </c>
-      <c r="E64" t="n">
+      <c r="G64" t="n">
         <v>28.0882</v>
       </c>
-      <c r="F64"/>
-      <c r="G64" t="n">
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" t="n">
         <v>200.0</v>
       </c>
-      <c r="H64" t="s">
-        <v>195</v>
-      </c>
-      <c r="I64" t="s">
-        <v>196</v>
+      <c r="K64" t="s">
+        <v>209</v>
+      </c>
+      <c r="L64" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
-      </c>
-      <c r="D65" t="n">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" t="n">
         <v>36.0913</v>
       </c>
-      <c r="E65" t="n">
+      <c r="G65" t="n">
         <v>28.0882</v>
       </c>
-      <c r="F65"/>
-      <c r="G65" t="s">
-        <v>197</v>
-      </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>198</v>
+        <v>211</v>
+      </c>
+      <c r="J65" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>209</v>
+      </c>
+      <c r="L65" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" t="n">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" t="n">
         <v>38.3905</v>
       </c>
-      <c r="E66" t="n">
+      <c r="G66" t="n">
         <v>24.0895</v>
       </c>
-      <c r="F66"/>
-      <c r="G66" t="s">
-        <v>201</v>
-      </c>
       <c r="H66" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>203</v>
+        <v>215</v>
+      </c>
+      <c r="J66" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>216</v>
+      </c>
+      <c r="L66" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" t="n">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" t="s">
+        <v>219</v>
+      </c>
+      <c r="F67" t="n">
         <v>38.9466</v>
       </c>
-      <c r="E67" t="n">
+      <c r="G67" t="n">
         <v>23.0905</v>
       </c>
-      <c r="F67"/>
-      <c r="G67" t="s">
-        <v>43</v>
-      </c>
       <c r="H67" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="I67" t="s">
-        <v>206</v>
+        <v>51</v>
+      </c>
+      <c r="J67" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>216</v>
+      </c>
+      <c r="L67" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" t="n">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" t="s">
+        <v>222</v>
+      </c>
+      <c r="F68" t="n">
         <v>38.3982</v>
       </c>
-      <c r="E68" t="n">
+      <c r="G68" t="n">
         <v>23.7905</v>
       </c>
-      <c r="F68"/>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
       <c r="H68" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="I68" t="s">
-        <v>209</v>
+        <v>37</v>
+      </c>
+      <c r="J68" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>216</v>
+      </c>
+      <c r="L68" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" t="n">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" t="n">
         <v>38.3982</v>
       </c>
-      <c r="E69" t="n">
+      <c r="G69" t="n">
         <v>23.7905</v>
       </c>
-      <c r="F69"/>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
       <c r="H69" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="I69" t="s">
-        <v>210</v>
+        <v>37</v>
+      </c>
+      <c r="J69" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>216</v>
+      </c>
+      <c r="L69" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" t="n">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" t="n">
         <v>38.3982</v>
       </c>
-      <c r="E70" t="n">
+      <c r="G70" t="n">
         <v>23.7905</v>
       </c>
-      <c r="F70"/>
-      <c r="G70" t="s">
-        <v>211</v>
-      </c>
       <c r="H70" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>212</v>
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>216</v>
+      </c>
+      <c r="L70" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" t="n">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" t="s">
+        <v>227</v>
+      </c>
+      <c r="F71" t="n">
         <v>37.2336</v>
       </c>
-      <c r="E71" t="n">
+      <c r="G71" t="n">
         <v>25.1616</v>
       </c>
-      <c r="F71"/>
-      <c r="G71" t="n">
+      <c r="H71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" t="s">
+        <v>228</v>
+      </c>
+      <c r="J71" t="n">
         <v>192.0</v>
       </c>
-      <c r="H71" t="s">
-        <v>215</v>
-      </c>
-      <c r="I71" t="s">
-        <v>216</v>
+      <c r="K71" t="s">
+        <v>229</v>
+      </c>
+      <c r="L71" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" t="n">
-        <v>37.2336</v>
-      </c>
-      <c r="E72" t="n">
-        <v>25.1616</v>
-      </c>
-      <c r="F72"/>
-      <c r="G72" t="s">
-        <v>217</v>
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" t="n">
+        <v>37.6167</v>
+      </c>
+      <c r="G72" t="n">
+        <v>24.3333</v>
       </c>
       <c r="H72" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s">
-        <v>218</v>
+        <v>51</v>
+      </c>
+      <c r="J72" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>229</v>
+      </c>
+      <c r="L72" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
-      </c>
-      <c r="D73" t="n">
-        <v>37.6167</v>
-      </c>
-      <c r="E73" t="n">
-        <v>24.3333</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" t="n">
+        <v>36.364</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25.477</v>
       </c>
       <c r="H73" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="I73" t="s">
-        <v>221</v>
+        <v>51</v>
+      </c>
+      <c r="J73" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>229</v>
+      </c>
+      <c r="L73" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
-      </c>
-      <c r="D74" t="n">
-        <v>36.364</v>
-      </c>
-      <c r="E74" t="n">
-        <v>25.477</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" t="n">
+        <v>36.744</v>
+      </c>
+      <c r="G74" t="n">
+        <v>24.422</v>
       </c>
       <c r="H74" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>240</v>
+      </c>
+      <c r="J74" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>241</v>
+      </c>
+      <c r="L74" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" t="n">
-        <v>36.744</v>
-      </c>
-      <c r="E75" t="n">
-        <v>24.422</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75" t="s">
-        <v>227</v>
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" t="s">
+        <v>244</v>
+      </c>
+      <c r="F75" t="n">
+        <v>32.493</v>
+      </c>
+      <c r="G75" t="n">
+        <v>21.5129</v>
       </c>
       <c r="H75" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="I75" t="s">
-        <v>229</v>
+        <v>245</v>
+      </c>
+      <c r="J75" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>246</v>
+      </c>
+      <c r="L75" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" t="n">
-        <v>32.493</v>
-      </c>
-      <c r="E76" t="n">
-        <v>21.5129</v>
-      </c>
-      <c r="F76"/>
-      <c r="G76" t="s">
-        <v>232</v>
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" t="s">
+        <v>249</v>
+      </c>
+      <c r="F76" t="n">
+        <v>38.3048</v>
+      </c>
+      <c r="G76" t="n">
+        <v>31.1884</v>
       </c>
       <c r="H76" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="I76" t="s">
-        <v>234</v>
+        <v>24</v>
+      </c>
+      <c r="J76" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>250</v>
+      </c>
+      <c r="L76" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" t="n">
-        <v>38.3048</v>
-      </c>
-      <c r="E77" t="n">
-        <v>31.1884</v>
-      </c>
-      <c r="F77"/>
-      <c r="G77" t="s">
-        <v>237</v>
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>252</v>
+      </c>
+      <c r="E77" t="s">
+        <v>253</v>
+      </c>
+      <c r="F77" t="n">
+        <v>36.562</v>
+      </c>
+      <c r="G77" t="n">
+        <v>31.102</v>
       </c>
       <c r="H77" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>239</v>
+        <v>24</v>
+      </c>
+      <c r="J77" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>254</v>
+      </c>
+      <c r="L77" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78" t="n">
-        <v>36.562</v>
-      </c>
-      <c r="E78" t="n">
-        <v>31.102</v>
-      </c>
-      <c r="F78"/>
-      <c r="G78" t="s">
-        <v>237</v>
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F78" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="G78" t="n">
+        <v>28.8504</v>
       </c>
       <c r="H78" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>243</v>
+        <v>258</v>
+      </c>
+      <c r="J78" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>259</v>
+      </c>
+      <c r="L78" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
-      </c>
-      <c r="D79" t="n">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>261</v>
+      </c>
+      <c r="E79" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" t="n">
         <v>37.44</v>
       </c>
-      <c r="E79" t="n">
+      <c r="G79" t="n">
         <v>28.8504</v>
       </c>
-      <c r="F79"/>
-      <c r="G79" t="s">
-        <v>246</v>
-      </c>
       <c r="H79" t="s">
-        <v>247</v>
+        <v>36</v>
       </c>
       <c r="I79" t="s">
-        <v>248</v>
+        <v>51</v>
+      </c>
+      <c r="J79" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>259</v>
+      </c>
+      <c r="L79" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" t="n">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>261</v>
+      </c>
+      <c r="E80" t="s">
+        <v>257</v>
+      </c>
+      <c r="F80" t="n">
         <v>37.44</v>
       </c>
-      <c r="E80" t="n">
+      <c r="G80" t="n">
         <v>28.8504</v>
       </c>
-      <c r="F80"/>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
       <c r="H80" t="s">
-        <v>247</v>
+        <v>36</v>
       </c>
       <c r="I80" t="s">
-        <v>250</v>
+        <v>51</v>
+      </c>
+      <c r="J80" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>259</v>
+      </c>
+      <c r="L80" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>245</v>
-      </c>
-      <c r="D81" t="n">
-        <v>37.44</v>
-      </c>
-      <c r="E81" t="n">
-        <v>28.8504</v>
-      </c>
-      <c r="F81"/>
-      <c r="G81" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" t="n">
+        <v>37.0216</v>
+      </c>
+      <c r="G81" t="n">
+        <v>27.2527</v>
       </c>
       <c r="H81" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>251</v>
+        <v>266</v>
+      </c>
+      <c r="J81" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>267</v>
+      </c>
+      <c r="L81" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
-      </c>
-      <c r="D82" t="n">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>264</v>
+      </c>
+      <c r="E82" t="s">
+        <v>265</v>
+      </c>
+      <c r="F82" t="n">
         <v>37.0216</v>
       </c>
-      <c r="E82" t="n">
+      <c r="G82" t="n">
         <v>27.2527</v>
       </c>
-      <c r="F82"/>
-      <c r="G82" t="s">
-        <v>254</v>
-      </c>
       <c r="H82" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="I82" t="s">
-        <v>256</v>
+        <v>46</v>
+      </c>
+      <c r="J82" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>267</v>
+      </c>
+      <c r="L82" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" t="n">
-        <v>37.0216</v>
-      </c>
-      <c r="E83" t="n">
-        <v>27.2527</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>270</v>
+      </c>
+      <c r="E83" t="s">
+        <v>271</v>
+      </c>
+      <c r="F83" t="n">
+        <v>38.2259</v>
+      </c>
+      <c r="G83" t="n">
+        <v>28.208</v>
       </c>
       <c r="H83" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>257</v>
+        <v>272</v>
+      </c>
+      <c r="J83" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>273</v>
+      </c>
+      <c r="L83" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>259</v>
-      </c>
-      <c r="D84" t="n">
-        <v>38.2259</v>
-      </c>
-      <c r="E84" t="n">
-        <v>28.208</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84" t="s">
-        <v>260</v>
+        <v>50</v>
+      </c>
+      <c r="D84" t="s">
+        <v>275</v>
+      </c>
+      <c r="E84" t="s">
+        <v>276</v>
+      </c>
+      <c r="F84" t="n">
+        <v>37.3149</v>
+      </c>
+      <c r="G84" t="n">
+        <v>27.1642</v>
       </c>
       <c r="H84" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="I84" t="s">
-        <v>262</v>
+        <v>277</v>
+      </c>
+      <c r="J84" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>278</v>
+      </c>
+      <c r="L84" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" t="s">
         <v>50</v>
       </c>
-      <c r="B85" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" t="s">
-        <v>264</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="D85" t="s">
+        <v>275</v>
+      </c>
+      <c r="E85" t="s">
+        <v>276</v>
+      </c>
+      <c r="F85" t="n">
         <v>37.3149</v>
       </c>
-      <c r="E85" t="n">
+      <c r="G85" t="n">
         <v>27.1642</v>
       </c>
-      <c r="F85"/>
-      <c r="G85" t="n">
-        <v>405.0</v>
-      </c>
       <c r="H85" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>266</v>
+        <v>280</v>
+      </c>
+      <c r="J85" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>278</v>
+      </c>
+      <c r="L85" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s">
         <v>50</v>
       </c>
-      <c r="B86" t="s">
-        <v>263</v>
-      </c>
-      <c r="C86" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="D86" t="s">
+        <v>275</v>
+      </c>
+      <c r="E86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F86" t="n">
         <v>37.3149</v>
       </c>
-      <c r="E86" t="n">
+      <c r="G86" t="n">
         <v>27.1642</v>
       </c>
-      <c r="F86"/>
-      <c r="G86" t="s">
-        <v>267</v>
-      </c>
       <c r="H86" t="s">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="I86" t="s">
-        <v>268</v>
+        <v>81</v>
+      </c>
+      <c r="J86" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>278</v>
+      </c>
+      <c r="L86" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" t="n">
-        <v>37.3149</v>
-      </c>
-      <c r="E87" t="n">
-        <v>27.1642</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="D87" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" t="s">
+        <v>284</v>
+      </c>
+      <c r="F87" t="n">
+        <v>38.0632</v>
+      </c>
+      <c r="G87" t="n">
+        <v>27.083</v>
       </c>
       <c r="H87" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>269</v>
+        <v>285</v>
+      </c>
+      <c r="J87" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>278</v>
+      </c>
+      <c r="L87" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
-      </c>
-      <c r="D88" t="n">
+        <v>125</v>
+      </c>
+      <c r="D88" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" t="s">
+        <v>284</v>
+      </c>
+      <c r="F88" t="n">
         <v>38.0632</v>
       </c>
-      <c r="E88" t="n">
+      <c r="G88" t="n">
         <v>27.083</v>
       </c>
-      <c r="F88"/>
-      <c r="G88" t="s">
-        <v>272</v>
-      </c>
       <c r="H88" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>273</v>
+        <v>285</v>
+      </c>
+      <c r="J88" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>278</v>
+      </c>
+      <c r="L88" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>271</v>
-      </c>
-      <c r="D89" t="n">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" t="s">
+        <v>284</v>
+      </c>
+      <c r="F89" t="n">
         <v>38.0632</v>
       </c>
-      <c r="E89" t="n">
+      <c r="G89" t="n">
         <v>27.083</v>
       </c>
-      <c r="F89"/>
-      <c r="G89" t="s">
-        <v>272</v>
-      </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>274</v>
+        <v>285</v>
+      </c>
+      <c r="J89" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>278</v>
+      </c>
+      <c r="L89" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>271</v>
-      </c>
-      <c r="D90" t="n">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90" t="s">
+        <v>284</v>
+      </c>
+      <c r="F90" t="n">
         <v>38.0632</v>
       </c>
-      <c r="E90" t="n">
+      <c r="G90" t="n">
         <v>27.083</v>
       </c>
-      <c r="F90"/>
-      <c r="G90" t="s">
-        <v>272</v>
-      </c>
       <c r="H90" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="I90" t="s">
-        <v>275</v>
+        <v>24</v>
+      </c>
+      <c r="J90" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>278</v>
+      </c>
+      <c r="L90" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" t="n">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" t="s">
+        <v>284</v>
+      </c>
+      <c r="F91" t="n">
         <v>38.0632</v>
       </c>
-      <c r="E91" t="n">
+      <c r="G91" t="n">
         <v>27.083</v>
       </c>
-      <c r="F91"/>
-      <c r="G91" t="s">
-        <v>237</v>
-      </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="I91" t="s">
-        <v>276</v>
+        <v>37</v>
+      </c>
+      <c r="J91" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>278</v>
+      </c>
+      <c r="L91" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>271</v>
-      </c>
-      <c r="D92" t="n">
-        <v>38.0632</v>
-      </c>
-      <c r="E92" t="n">
-        <v>27.083</v>
-      </c>
-      <c r="F92"/>
-      <c r="G92" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>291</v>
+      </c>
+      <c r="E92" t="s">
+        <v>292</v>
+      </c>
+      <c r="F92" t="n">
+        <v>38.124</v>
+      </c>
+      <c r="G92" t="n">
+        <v>27.3245</v>
       </c>
       <c r="H92" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="I92" t="s">
-        <v>277</v>
+        <v>46</v>
+      </c>
+      <c r="J92" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>278</v>
+      </c>
+      <c r="L92" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" t="s">
+        <v>295</v>
+      </c>
+      <c r="F93" t="n">
+        <v>37.5628</v>
+      </c>
+      <c r="G93" t="n">
+        <v>27.2031</v>
+      </c>
+      <c r="H93" t="s">
+        <v>62</v>
+      </c>
+      <c r="I93" t="s">
+        <v>85</v>
+      </c>
+      <c r="J93" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K93" t="s">
         <v>278</v>
       </c>
-      <c r="C93" t="s">
-        <v>279</v>
-      </c>
-      <c r="D93" t="n">
-        <v>38.124</v>
-      </c>
-      <c r="E93" t="n">
-        <v>27.3245</v>
-      </c>
-      <c r="F93"/>
-      <c r="G93" t="s">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s">
-        <v>265</v>
-      </c>
-      <c r="I93" t="s">
-        <v>280</v>
+      <c r="L93" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" t="n">
-        <v>37.5628</v>
-      </c>
-      <c r="E94" t="n">
-        <v>27.2031</v>
-      </c>
-      <c r="F94"/>
-      <c r="G94" t="s">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>297</v>
+      </c>
+      <c r="E94" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" t="n">
+        <v>38.2257</v>
+      </c>
+      <c r="G94" t="n">
+        <v>27.821</v>
       </c>
       <c r="H94" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="I94" t="s">
-        <v>283</v>
+        <v>46</v>
+      </c>
+      <c r="J94" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>278</v>
+      </c>
+      <c r="L94" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" t="n">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" t="s">
+        <v>298</v>
+      </c>
+      <c r="F95" t="n">
         <v>38.2257</v>
       </c>
-      <c r="E95" t="n">
+      <c r="G95" t="n">
         <v>27.821</v>
       </c>
-      <c r="F95"/>
-      <c r="G95" t="s">
-        <v>40</v>
-      </c>
       <c r="H95" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="I95" t="s">
-        <v>286</v>
+        <v>46</v>
+      </c>
+      <c r="J95" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>278</v>
+      </c>
+      <c r="L95" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
-      </c>
-      <c r="D96" t="n">
-        <v>38.2257</v>
-      </c>
-      <c r="E96" t="n">
-        <v>27.821</v>
-      </c>
-      <c r="F96"/>
-      <c r="G96" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96" t="s">
+        <v>302</v>
+      </c>
+      <c r="F96" t="n">
+        <v>39.0757</v>
+      </c>
+      <c r="G96" t="n">
+        <v>27.1103</v>
       </c>
       <c r="H96" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="I96" t="s">
-        <v>287</v>
+        <v>37</v>
+      </c>
+      <c r="J96" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>303</v>
+      </c>
+      <c r="L96" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97" t="n">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>301</v>
+      </c>
+      <c r="E97" t="s">
+        <v>302</v>
+      </c>
+      <c r="F97" t="n">
         <v>39.0757</v>
       </c>
-      <c r="E97" t="n">
+      <c r="G97" t="n">
         <v>27.1103</v>
       </c>
-      <c r="F97"/>
-      <c r="G97" t="s">
-        <v>30</v>
-      </c>
       <c r="H97" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>291</v>
+        <v>305</v>
+      </c>
+      <c r="J97" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>303</v>
+      </c>
+      <c r="L97" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
-      </c>
-      <c r="D98" t="n">
-        <v>39.0757</v>
-      </c>
-      <c r="E98" t="n">
-        <v>27.1103</v>
-      </c>
-      <c r="F98"/>
-      <c r="G98" t="s">
-        <v>292</v>
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>307</v>
+      </c>
+      <c r="E98" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" t="n">
+        <v>40.4257</v>
+      </c>
+      <c r="G98" t="n">
+        <v>27.0671</v>
       </c>
       <c r="H98" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="I98" t="s">
-        <v>293</v>
+        <v>309</v>
+      </c>
+      <c r="J98" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>303</v>
+      </c>
+      <c r="L98" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
-      </c>
-      <c r="D99" t="n">
-        <v>40.4257</v>
-      </c>
-      <c r="E99" t="n">
-        <v>27.0671</v>
-      </c>
-      <c r="F99"/>
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>311</v>
+      </c>
+      <c r="E99" t="s">
+        <v>312</v>
+      </c>
+      <c r="F99" t="n">
+        <v>39.752</v>
+      </c>
       <c r="G99" t="n">
-        <v>208.0</v>
+        <v>26.159</v>
       </c>
       <c r="H99" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="I99" t="s">
-        <v>296</v>
+        <v>24</v>
+      </c>
+      <c r="J99" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>311</v>
+      </c>
+      <c r="L99" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>298</v>
-      </c>
-      <c r="D100" t="n">
-        <v>39.752</v>
-      </c>
-      <c r="E100" t="n">
-        <v>26.159</v>
-      </c>
-      <c r="F100"/>
-      <c r="G100" t="s">
-        <v>237</v>
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>314</v>
+      </c>
+      <c r="E100" t="s">
+        <v>315</v>
+      </c>
+      <c r="F100" t="n">
+        <v>39.957</v>
+      </c>
+      <c r="G100" t="n">
+        <v>26.239</v>
       </c>
       <c r="H100" t="s">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="I100" t="s">
-        <v>300</v>
+        <v>37</v>
+      </c>
+      <c r="J100" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>311</v>
+      </c>
+      <c r="L100" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C101" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" t="n">
-        <v>39.957</v>
-      </c>
-      <c r="E101" t="n">
-        <v>26.239</v>
-      </c>
-      <c r="F101"/>
-      <c r="G101" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="D101" t="s">
+        <v>318</v>
+      </c>
+      <c r="E101" t="s">
+        <v>319</v>
+      </c>
+      <c r="F101" t="n">
+        <v>40.1143</v>
+      </c>
+      <c r="G101" t="n">
+        <v>26.2418</v>
       </c>
       <c r="H101" t="s">
-        <v>299</v>
+        <v>62</v>
       </c>
       <c r="I101" t="s">
-        <v>303</v>
+        <v>320</v>
+      </c>
+      <c r="J101" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>311</v>
+      </c>
+      <c r="L101" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
-      </c>
-      <c r="D102" t="n">
-        <v>40.1143</v>
-      </c>
-      <c r="E102" t="n">
-        <v>26.2418</v>
-      </c>
-      <c r="F102"/>
-      <c r="G102" t="s">
-        <v>307</v>
+        <v>50</v>
+      </c>
+      <c r="D102" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102" t="s">
+        <v>323</v>
+      </c>
+      <c r="F102" t="n">
+        <v>41.8574</v>
+      </c>
+      <c r="G102" t="n">
+        <v>32.8554</v>
       </c>
       <c r="H102" t="s">
-        <v>299</v>
+        <v>62</v>
       </c>
       <c r="I102" t="s">
-        <v>308</v>
+        <v>324</v>
+      </c>
+      <c r="J102" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>325</v>
+      </c>
+      <c r="L102" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" t="s">
         <v>50</v>
       </c>
-      <c r="B103" t="s">
-        <v>309</v>
-      </c>
-      <c r="C103" t="s">
-        <v>310</v>
-      </c>
-      <c r="D103" t="n">
-        <v>41.8574</v>
-      </c>
-      <c r="E103" t="n">
-        <v>32.8554</v>
-      </c>
-      <c r="F103"/>
-      <c r="G103" t="s">
-        <v>311</v>
+      <c r="D103" t="s">
+        <v>327</v>
+      </c>
+      <c r="E103" t="s">
+        <v>328</v>
+      </c>
+      <c r="F103" t="n">
+        <v>42.025</v>
+      </c>
+      <c r="G103" t="n">
+        <v>35.143</v>
       </c>
       <c r="H103" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I103" t="s">
-        <v>313</v>
+        <v>330</v>
+      </c>
+      <c r="J103" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>325</v>
+      </c>
+      <c r="L103" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" t="s">
         <v>50</v>
       </c>
-      <c r="B104" t="s">
-        <v>314</v>
-      </c>
-      <c r="C104" t="s">
-        <v>315</v>
-      </c>
-      <c r="D104" t="n">
+      <c r="D104" t="s">
+        <v>327</v>
+      </c>
+      <c r="E104" t="s">
+        <v>328</v>
+      </c>
+      <c r="F104" t="n">
         <v>42.025</v>
       </c>
-      <c r="E104" t="n">
+      <c r="G104" t="n">
         <v>35.143</v>
       </c>
-      <c r="F104"/>
-      <c r="G104" t="s">
-        <v>316</v>
-      </c>
       <c r="H104" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I104" t="s">
-        <v>317</v>
+        <v>330</v>
+      </c>
+      <c r="J104" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>325</v>
+      </c>
+      <c r="L104" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" t="s">
         <v>50</v>
       </c>
-      <c r="B105" t="s">
-        <v>314</v>
-      </c>
-      <c r="C105" t="s">
-        <v>315</v>
-      </c>
-      <c r="D105" t="n">
+      <c r="D105" t="s">
+        <v>327</v>
+      </c>
+      <c r="E105" t="s">
+        <v>328</v>
+      </c>
+      <c r="F105" t="n">
         <v>42.025</v>
       </c>
-      <c r="E105" t="n">
+      <c r="G105" t="n">
         <v>35.143</v>
       </c>
-      <c r="F105"/>
-      <c r="G105" t="s">
-        <v>316</v>
-      </c>
       <c r="H105" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="I105" t="s">
-        <v>318</v>
+        <v>62</v>
+      </c>
+      <c r="J105" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>325</v>
+      </c>
+      <c r="L105" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" t="s">
         <v>50</v>
       </c>
-      <c r="B106" t="s">
-        <v>314</v>
-      </c>
-      <c r="C106" t="s">
-        <v>315</v>
-      </c>
-      <c r="D106" t="n">
+      <c r="D106" t="s">
+        <v>327</v>
+      </c>
+      <c r="E106" t="s">
+        <v>328</v>
+      </c>
+      <c r="F106" t="n">
         <v>42.025</v>
       </c>
-      <c r="E106" t="n">
+      <c r="G106" t="n">
         <v>35.143</v>
       </c>
-      <c r="F106"/>
-      <c r="G106" t="s">
-        <v>319</v>
-      </c>
       <c r="H106" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="I106" t="s">
-        <v>320</v>
+        <v>334</v>
+      </c>
+      <c r="J106" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>325</v>
+      </c>
+      <c r="L106" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" t="s">
         <v>50</v>
       </c>
-      <c r="B107" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" t="s">
-        <v>315</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="D107" t="s">
+        <v>327</v>
+      </c>
+      <c r="E107" t="s">
+        <v>328</v>
+      </c>
+      <c r="F107" t="n">
         <v>42.025</v>
       </c>
-      <c r="E107" t="n">
+      <c r="G107" t="n">
         <v>35.143</v>
       </c>
-      <c r="F107"/>
-      <c r="G107" t="s">
-        <v>321</v>
-      </c>
       <c r="H107" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>322</v>
+        <v>336</v>
+      </c>
+      <c r="J107" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>325</v>
+      </c>
+      <c r="L107" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" t="s">
         <v>50</v>
       </c>
-      <c r="B108" t="s">
-        <v>314</v>
-      </c>
-      <c r="C108" t="s">
-        <v>315</v>
-      </c>
-      <c r="D108" t="n">
+      <c r="D108" t="s">
+        <v>327</v>
+      </c>
+      <c r="E108" t="s">
+        <v>328</v>
+      </c>
+      <c r="F108" t="n">
         <v>42.025</v>
       </c>
-      <c r="E108" t="n">
+      <c r="G108" t="n">
         <v>35.143</v>
       </c>
-      <c r="F108"/>
-      <c r="G108" t="s">
-        <v>323</v>
-      </c>
       <c r="H108" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="I108" t="s">
-        <v>324</v>
+        <v>85</v>
+      </c>
+      <c r="J108" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>325</v>
+      </c>
+      <c r="L108" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" t="s">
         <v>50</v>
       </c>
-      <c r="B109" t="s">
-        <v>314</v>
-      </c>
-      <c r="C109" t="s">
-        <v>315</v>
-      </c>
-      <c r="D109" t="n">
+      <c r="D109" t="s">
+        <v>327</v>
+      </c>
+      <c r="E109" t="s">
+        <v>328</v>
+      </c>
+      <c r="F109" t="n">
         <v>42.025</v>
       </c>
-      <c r="E109" t="n">
+      <c r="G109" t="n">
         <v>35.143</v>
       </c>
-      <c r="F109"/>
-      <c r="G109" t="s">
-        <v>75</v>
-      </c>
       <c r="H109" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="I109" t="s">
+        <v>85</v>
+      </c>
+      <c r="J109" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K109" t="s">
         <v>325</v>
+      </c>
+      <c r="L109" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" t="s">
         <v>50</v>
       </c>
-      <c r="B110" t="s">
-        <v>314</v>
-      </c>
-      <c r="C110" t="s">
-        <v>315</v>
-      </c>
-      <c r="D110" t="n">
+      <c r="D110" t="s">
+        <v>327</v>
+      </c>
+      <c r="E110" t="s">
+        <v>328</v>
+      </c>
+      <c r="F110" t="n">
         <v>42.025</v>
       </c>
-      <c r="E110" t="n">
+      <c r="G110" t="n">
         <v>35.143</v>
       </c>
-      <c r="F110"/>
-      <c r="G110" t="s">
-        <v>75</v>
-      </c>
       <c r="H110" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="I110" t="s">
-        <v>326</v>
+        <v>51</v>
+      </c>
+      <c r="J110" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>325</v>
+      </c>
+      <c r="L110" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" t="s">
         <v>50</v>
       </c>
-      <c r="B111" t="s">
-        <v>314</v>
-      </c>
-      <c r="C111" t="s">
-        <v>315</v>
-      </c>
-      <c r="D111" t="n">
+      <c r="D111" t="s">
+        <v>327</v>
+      </c>
+      <c r="E111" t="s">
+        <v>328</v>
+      </c>
+      <c r="F111" t="n">
         <v>42.025</v>
       </c>
-      <c r="E111" t="n">
+      <c r="G111" t="n">
         <v>35.143</v>
       </c>
-      <c r="F111"/>
-      <c r="G111" t="s">
-        <v>43</v>
-      </c>
       <c r="H111" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="I111" t="s">
-        <v>327</v>
+        <v>341</v>
+      </c>
+      <c r="J111" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>325</v>
+      </c>
+      <c r="L111" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" t="s">
         <v>50</v>
       </c>
-      <c r="B112" t="s">
-        <v>314</v>
-      </c>
-      <c r="C112" t="s">
-        <v>315</v>
-      </c>
-      <c r="D112" t="n">
+      <c r="D112" t="s">
+        <v>327</v>
+      </c>
+      <c r="E112" t="s">
+        <v>328</v>
+      </c>
+      <c r="F112" t="n">
         <v>42.025</v>
       </c>
-      <c r="E112" t="n">
+      <c r="G112" t="n">
         <v>35.143</v>
       </c>
-      <c r="F112"/>
-      <c r="G112" t="s">
-        <v>328</v>
-      </c>
       <c r="H112" t="s">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="I112" t="s">
-        <v>329</v>
+        <v>343</v>
+      </c>
+      <c r="J112" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>325</v>
+      </c>
+      <c r="L112" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="s">
         <v>50</v>
       </c>
-      <c r="B113" t="s">
-        <v>314</v>
-      </c>
-      <c r="C113" t="s">
-        <v>315</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="D113" t="s">
+        <v>327</v>
+      </c>
+      <c r="E113" t="s">
+        <v>328</v>
+      </c>
+      <c r="F113" t="n">
         <v>42.025</v>
       </c>
-      <c r="E113" t="n">
+      <c r="G113" t="n">
         <v>35.143</v>
       </c>
-      <c r="F113"/>
-      <c r="G113" t="s">
-        <v>330</v>
-      </c>
       <c r="H113" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I113" t="s">
-        <v>331</v>
+        <v>345</v>
+      </c>
+      <c r="J113" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>325</v>
+      </c>
+      <c r="L113" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>315</v>
-      </c>
-      <c r="D114" t="n">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>327</v>
+      </c>
+      <c r="E114" t="s">
+        <v>328</v>
+      </c>
+      <c r="F114" t="n">
         <v>42.025</v>
       </c>
-      <c r="E114" t="n">
+      <c r="G114" t="n">
         <v>35.143</v>
       </c>
-      <c r="F114"/>
-      <c r="G114" t="s">
-        <v>332</v>
-      </c>
       <c r="H114" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="I114" t="s">
-        <v>333</v>
+        <v>37</v>
+      </c>
+      <c r="J114" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>325</v>
+      </c>
+      <c r="L114" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
+        <v>49</v>
       </c>
       <c r="C115" t="s">
-        <v>315</v>
-      </c>
-      <c r="D115" t="n">
+        <v>50</v>
+      </c>
+      <c r="D115" t="s">
+        <v>327</v>
+      </c>
+      <c r="E115" t="s">
+        <v>328</v>
+      </c>
+      <c r="F115" t="n">
         <v>42.025</v>
       </c>
-      <c r="E115" t="n">
+      <c r="G115" t="n">
         <v>35.143</v>
       </c>
-      <c r="F115"/>
-      <c r="G115" t="s">
-        <v>30</v>
-      </c>
       <c r="H115" t="s">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="I115" t="s">
-        <v>334</v>
+        <v>85</v>
+      </c>
+      <c r="J115" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>325</v>
+      </c>
+      <c r="L115" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B116" t="s">
-        <v>314</v>
+        <v>59</v>
       </c>
       <c r="C116" t="s">
-        <v>315</v>
-      </c>
-      <c r="D116" t="n">
-        <v>42.025</v>
-      </c>
-      <c r="E116" t="n">
-        <v>35.143</v>
-      </c>
-      <c r="F116"/>
-      <c r="G116" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="D116" t="s">
+        <v>349</v>
+      </c>
+      <c r="E116" t="s">
+        <v>350</v>
+      </c>
+      <c r="F116" t="n">
+        <v>42.421</v>
+      </c>
+      <c r="G116" t="n">
+        <v>27.693</v>
       </c>
       <c r="H116" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I116" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="J116" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>351</v>
+      </c>
+      <c r="L116" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" t="s">
         <v>50</v>
       </c>
-      <c r="B117" t="s">
-        <v>336</v>
-      </c>
-      <c r="C117" t="s">
-        <v>337</v>
-      </c>
-      <c r="D117" t="n">
+      <c r="D117" t="s">
+        <v>349</v>
+      </c>
+      <c r="E117" t="s">
+        <v>350</v>
+      </c>
+      <c r="F117" t="n">
         <v>42.421</v>
       </c>
-      <c r="E117" t="n">
+      <c r="G117" t="n">
         <v>27.693</v>
       </c>
-      <c r="F117"/>
-      <c r="G117" t="s">
-        <v>316</v>
-      </c>
       <c r="H117" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I117" t="s">
-        <v>339</v>
+        <v>330</v>
+      </c>
+      <c r="J117" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>351</v>
+      </c>
+      <c r="L117" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>340</v>
+        <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>337</v>
-      </c>
-      <c r="D118" t="n">
-        <v>42.421</v>
-      </c>
-      <c r="E118" t="n">
-        <v>27.693</v>
-      </c>
-      <c r="F118"/>
-      <c r="G118" t="s">
-        <v>316</v>
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>355</v>
+      </c>
+      <c r="E118" t="s">
+        <v>356</v>
+      </c>
+      <c r="F118" t="n">
+        <v>48.8148</v>
+      </c>
+      <c r="G118" t="n">
+        <v>28.5865</v>
       </c>
       <c r="H118" t="s">
-        <v>338</v>
+        <v>36</v>
       </c>
       <c r="I118" t="s">
-        <v>341</v>
+        <v>51</v>
+      </c>
+      <c r="J118" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>357</v>
+      </c>
+      <c r="L118" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>343</v>
-      </c>
-      <c r="D119" t="n">
-        <v>48.8148</v>
-      </c>
-      <c r="E119" t="n">
-        <v>28.5865</v>
-      </c>
-      <c r="F119"/>
-      <c r="G119" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="D119" t="s">
+        <v>359</v>
+      </c>
+      <c r="E119" t="s">
+        <v>360</v>
+      </c>
+      <c r="F119" t="n">
+        <v>48.547</v>
+      </c>
+      <c r="G119" t="n">
+        <v>28.773</v>
       </c>
       <c r="H119" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="I119" t="s">
-        <v>345</v>
+        <v>24</v>
+      </c>
+      <c r="J119" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>357</v>
+      </c>
+      <c r="L119" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" t="s">
         <v>50</v>
       </c>
-      <c r="B120" t="s">
-        <v>346</v>
-      </c>
-      <c r="C120" t="s">
-        <v>347</v>
-      </c>
-      <c r="D120" t="n">
+      <c r="D120" t="s">
+        <v>359</v>
+      </c>
+      <c r="E120" t="s">
+        <v>360</v>
+      </c>
+      <c r="F120" t="n">
         <v>48.547</v>
       </c>
-      <c r="E120" t="n">
+      <c r="G120" t="n">
         <v>28.773</v>
       </c>
-      <c r="F120"/>
-      <c r="G120" t="s">
-        <v>237</v>
-      </c>
       <c r="H120" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="I120" t="s">
-        <v>348</v>
+        <v>24</v>
+      </c>
+      <c r="J120" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>357</v>
+      </c>
+      <c r="L120" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="C121" t="s">
-        <v>347</v>
-      </c>
-      <c r="D121" t="n">
+        <v>50</v>
+      </c>
+      <c r="D121" t="s">
+        <v>359</v>
+      </c>
+      <c r="E121" t="s">
+        <v>360</v>
+      </c>
+      <c r="F121" t="n">
         <v>48.547</v>
       </c>
-      <c r="E121" t="n">
+      <c r="G121" t="n">
         <v>28.773</v>
       </c>
-      <c r="F121"/>
-      <c r="G121" t="s">
-        <v>237</v>
-      </c>
       <c r="H121" t="s">
-        <v>344</v>
+        <v>36</v>
       </c>
       <c r="I121" t="s">
-        <v>349</v>
+        <v>51</v>
+      </c>
+      <c r="J121" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>357</v>
+      </c>
+      <c r="L121" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="C122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D122" t="n">
+        <v>125</v>
+      </c>
+      <c r="D122" t="s">
+        <v>359</v>
+      </c>
+      <c r="E122" t="s">
+        <v>360</v>
+      </c>
+      <c r="F122" t="n">
         <v>48.547</v>
       </c>
-      <c r="E122" t="n">
+      <c r="G122" t="n">
         <v>28.773</v>
       </c>
-      <c r="F122"/>
-      <c r="G122" t="s">
-        <v>43</v>
-      </c>
       <c r="H122" t="s">
-        <v>344</v>
+        <v>62</v>
       </c>
       <c r="I122" t="s">
-        <v>350</v>
+        <v>62</v>
+      </c>
+      <c r="J122" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>357</v>
+      </c>
+      <c r="L122" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>346</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>347</v>
-      </c>
-      <c r="D123" t="n">
-        <v>48.547</v>
-      </c>
-      <c r="E123" t="n">
-        <v>28.773</v>
-      </c>
-      <c r="F123"/>
-      <c r="G123" t="s">
-        <v>319</v>
+        <v>50</v>
+      </c>
+      <c r="D123" t="s">
+        <v>365</v>
+      </c>
+      <c r="E123" t="s">
+        <v>366</v>
+      </c>
+      <c r="F123" t="n">
+        <v>45.1309</v>
+      </c>
+      <c r="G123" t="n">
+        <v>36.4251</v>
       </c>
       <c r="H123" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="I123" t="s">
-        <v>351</v>
+        <v>367</v>
+      </c>
+      <c r="J123" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>368</v>
+      </c>
+      <c r="L123" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>353</v>
-      </c>
-      <c r="D124" t="n">
-        <v>45.1309</v>
-      </c>
-      <c r="E124" t="n">
-        <v>36.4251</v>
-      </c>
-      <c r="F124"/>
-      <c r="G124" t="s">
-        <v>354</v>
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>370</v>
+      </c>
+      <c r="E124" t="s">
+        <v>371</v>
+      </c>
+      <c r="F124" t="n">
+        <v>45.236</v>
+      </c>
+      <c r="G124" t="n">
+        <v>36.417</v>
       </c>
       <c r="H124" t="s">
-        <v>355</v>
+        <v>17</v>
       </c>
       <c r="I124" t="s">
-        <v>356</v>
+        <v>372</v>
+      </c>
+      <c r="J124" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>368</v>
+      </c>
+      <c r="L124" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
-      </c>
-      <c r="D125" t="n">
-        <v>45.236</v>
-      </c>
-      <c r="E125" t="n">
-        <v>36.417</v>
-      </c>
-      <c r="F125"/>
-      <c r="G125" t="s">
-        <v>359</v>
+        <v>50</v>
+      </c>
+      <c r="D125" t="s">
+        <v>374</v>
+      </c>
+      <c r="E125" t="s">
+        <v>375</v>
+      </c>
+      <c r="F125" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="G125" t="n">
+        <v>30.2613</v>
       </c>
       <c r="H125" t="s">
-        <v>355</v>
+        <v>62</v>
       </c>
       <c r="I125" t="s">
-        <v>360</v>
+        <v>81</v>
+      </c>
+      <c r="J125" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>376</v>
+      </c>
+      <c r="L125" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>362</v>
-      </c>
-      <c r="D126" t="n">
-        <v>46.11</v>
-      </c>
-      <c r="E126" t="n">
-        <v>30.2613</v>
-      </c>
-      <c r="F126"/>
-      <c r="G126" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="D126" t="s">
+        <v>379</v>
+      </c>
+      <c r="E126" t="s">
+        <v>380</v>
+      </c>
+      <c r="F126" t="n">
+        <v>46.4133</v>
+      </c>
+      <c r="G126" t="n">
+        <v>31.5413</v>
       </c>
       <c r="H126" t="s">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="I126" t="s">
-        <v>364</v>
+        <v>51</v>
+      </c>
+      <c r="J126" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K126" t="s">
+        <v>376</v>
+      </c>
+      <c r="L126" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>365</v>
+        <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>366</v>
+        <v>49</v>
       </c>
       <c r="C127" t="s">
-        <v>367</v>
-      </c>
-      <c r="D127" t="n">
+        <v>50</v>
+      </c>
+      <c r="D127" t="s">
+        <v>379</v>
+      </c>
+      <c r="E127" t="s">
+        <v>380</v>
+      </c>
+      <c r="F127" t="n">
         <v>46.4133</v>
       </c>
-      <c r="E127" t="n">
+      <c r="G127" t="n">
         <v>31.5413</v>
       </c>
-      <c r="F127"/>
-      <c r="G127" t="s">
-        <v>43</v>
-      </c>
       <c r="H127" t="s">
-        <v>368</v>
+        <v>135</v>
       </c>
       <c r="I127" t="s">
-        <v>369</v>
+        <v>135</v>
+      </c>
+      <c r="J127" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="K127" t="s">
+        <v>376</v>
+      </c>
+      <c r="L127" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>366</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s">
-        <v>367</v>
-      </c>
-      <c r="D128" t="n">
+        <v>50</v>
+      </c>
+      <c r="D128" t="s">
+        <v>379</v>
+      </c>
+      <c r="E128" t="s">
+        <v>380</v>
+      </c>
+      <c r="F128" t="n">
         <v>46.4133</v>
       </c>
-      <c r="E128" t="n">
+      <c r="G128" t="n">
         <v>31.5413</v>
       </c>
-      <c r="F128"/>
-      <c r="G128" t="s">
-        <v>370</v>
-      </c>
       <c r="H128" t="s">
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>42</v>
-      </c>
-      <c r="B129" t="s">
-        <v>366</v>
-      </c>
-      <c r="C129" t="s">
-        <v>367</v>
-      </c>
-      <c r="D129" t="n">
-        <v>46.4133</v>
-      </c>
-      <c r="E129" t="n">
-        <v>31.5413</v>
-      </c>
-      <c r="F129"/>
-      <c r="G129" t="s">
-        <v>237</v>
-      </c>
-      <c r="H129" t="s">
-        <v>368</v>
-      </c>
-      <c r="I129" t="s">
-        <v>372</v>
+        <v>24</v>
+      </c>
+      <c r="J128" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="K128" t="s">
+        <v>376</v>
+      </c>
+      <c r="L128" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
